--- a/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/ProctoringStatusDataWithSomeErrors.xlsx
+++ b/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/ProctoringStatusDataWithSomeErrors.xlsx
@@ -24,9 +24,6 @@
     <t>Session ID</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>User full name</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>нет</t>
+  </si>
+  <si>
+    <t>User email</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,87 +537,87 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="1">
         <v>44718.25</v>
@@ -626,10 +626,10 @@
         <v>44718</v>
       </c>
       <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
       </c>
       <c r="L2">
         <v>7</v>
@@ -644,45 +644,45 @@
         <v>39069</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2">
         <v>13</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
       </c>
       <c r="H3" s="1">
         <v>44718.25</v>
@@ -691,10 +691,10 @@
         <v>44718</v>
       </c>
       <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
         <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
       </c>
       <c r="L3">
         <v>12</v>
@@ -709,25 +709,25 @@
         <v>39069</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3">
         <v>75</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S3">
         <v>13</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -736,22 +736,22 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1">
         <v>44718.25</v>
@@ -760,10 +760,10 @@
         <v>44718</v>
       </c>
       <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
         <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -778,45 +778,45 @@
         <v>39069</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5">
         <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5">
         <v>13</v>
       </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1">
         <v>44718.25</v>
@@ -825,10 +825,10 @@
         <v>44718</v>
       </c>
       <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
         <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -843,45 +843,45 @@
         <v>39069</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6">
         <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S6">
         <v>13</v>
       </c>
       <c r="T6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
       </c>
       <c r="H7" s="1">
         <v>44718.25</v>
@@ -890,10 +890,10 @@
         <v>44718</v>
       </c>
       <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
         <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
       </c>
       <c r="L7">
         <v>7</v>
@@ -908,42 +908,42 @@
         <v>39069</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7">
         <v>75</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S7">
         <v>13</v>
       </c>
       <c r="T7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="1">
         <v>44718.25</v>
@@ -952,10 +952,10 @@
         <v>44718</v>
       </c>
       <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
         <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
       </c>
       <c r="L8">
         <v>12</v>
@@ -970,25 +970,25 @@
         <v>39069</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8">
         <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S8">
         <v>13</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -998,22 +998,22 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1">
         <v>44718.25</v>
@@ -1022,10 +1022,10 @@
         <v>44718</v>
       </c>
       <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
         <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>42</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1040,45 +1040,45 @@
         <v>39069</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10">
         <v>75</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S10">
         <v>13</v>
       </c>
       <c r="T10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
       </c>
       <c r="H11" s="1">
         <v>44718.25</v>
@@ -1087,10 +1087,10 @@
         <v>44718</v>
       </c>
       <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
         <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>46</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -1105,25 +1105,25 @@
         <v>39069</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q11">
         <v>75</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S11">
         <v>13</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
